--- a/biology/Médecine/Moritz_Schreber/Moritz_Schreber.xlsx
+++ b/biology/Médecine/Moritz_Schreber/Moritz_Schreber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Gottlob Moritz Schreber, né le 15 octobre 1808 à Leipzig, où il meurt le 10 novembre 1861, est un médecin et éducateur saxon, professeur à l'université de Leipzig. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les publications de Moritz Schreber traitent principalement de la santé des enfants et des conséquences sociales de l'urbanisation due à la Révolution industrielle.
-Il est à l'origine de jardins familiaux, les Schrebergarten, destinés à l'exercice physique. Adepte de méthodes coercitives que Katharina Rutschky qualifiera plus tard de Schwarze Pädagogik (« pédagogie noire »)[1], Moritz Schreber est l'inventeur d'instruments et d'appareils visant à corriger les enfants. Il préconise également l'usage des bains glacés à titre d'outil éducatif.
+Il est à l'origine de jardins familiaux, les Schrebergarten, destinés à l'exercice physique. Adepte de méthodes coercitives que Katharina Rutschky qualifiera plus tard de Schwarze Pädagogik (« pédagogie noire »), Moritz Schreber est l'inventeur d'instruments et d'appareils visant à corriger les enfants. Il préconise également l'usage des bains glacés à titre d'outil éducatif.
 Marié à Pauline Haase (1815-1907), il a eu trois filles et deux fils. L'aîné, Daniel Gustav (1839–1877), s'est suicidé. Le cadet, Daniel Paul Schreber (1842-1911), est l'un des cas étudiés par Freud dans Cinq psychanalyses. Freud ne l'a jamais rencontré mais base son étude sur les Mémoires d’un névropathe. À sa suite, Lacan et Deleuze ont étudié le cas de Daniel Paul Schreber.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Eigenthümlichkeiten des kindlichen Organismus im gesunden und kranken Zustande (1852)
 Der Hausfreund als Erzieher und Führer zu Familienglück und Menschenveredelung (1861)
